--- a/data/publications/orcid/export_to_manual/Uniwersytet_Wrocławski_titles.xlsx
+++ b/data/publications/orcid/export_to_manual/Uniwersytet_Wrocławski_titles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1663 +436,1800 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>orcid</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>journal</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Danuta Bogumiła Borecka-Biernat</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1401-9821</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Ocena poznawcza jako czynnik determinujący strategie agresji w radzeniu sobie gimnazjalistów w sytuacji konfliktu społecznego</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Chowanna</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Danuta_Bogumiła_Borecka-Biernat_9</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Danuta Bogumiła Borecka-Biernat</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1401-9821</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Strategia agresywnego radzenia sobie młodzieży gimnazjalnej w sytuacji konfliktu społecznego w kontekście poczucia kontroli nad sytuacją, oceny poznawczej konfliktu i reakcji emocjonalnych</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Teraźniejszość, Człowiek, Edukacja</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Danuta_Bogumiła_Borecka-Biernat_10</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>32</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Anna Marta Brytek-Matera</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5178-371X</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t xml:space="preserve">How Healthy Are Health-Related Behaviors in University Students: The HOLISTic Study </t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2021-02-19</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Nutrients</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Anna_Marta_Brytek-Matera_12</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>33</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Anna Marta Brytek-Matera</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5178-371X</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Orthorexia nervosa and its association with alexithymia, emotion dysregulation and disordered eating attitudes among Lebanese adults</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2021-02-11</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Eating and Weight Disorders - Studies on Anorexia, Bulimia and Obesity</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Anna_Marta_Brytek-Matera_13</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>45</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Anna Marta Brytek-Matera</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5178-371X</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t xml:space="preserve">Interaction between Vegetarian Versus Omnivorous Diet and Unhealthy Eating Patterns (Orthorexia Nervosa, Cognitive Restraint) and Body Mass Index in Adults </t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2020-02-28</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Nutrients</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Anna_Marta_Brytek-Matera_25</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>52</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Anna Marta Brytek-Matera</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5178-371X</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>The psychopathology of body image in orthorexia nervosa</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Journal of Psychopathology</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Anna_Marta_Brytek-Matera_32</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>87</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Katarzyna Danuta Durniat</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4830-5044</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Methodological, ethical and legal problems of measuring and counteracting workplace mobbing</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2021-02-24</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>EWOP In Practice (The EAWOP Practitioners E-Journal)</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Katarzyna_Danuta_Durniat_1</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>91</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Katarzyna Danuta Durniat</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4830-5044</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Bezpieczeństwo pracowników w miejscu pracy wobec zagrożenia mobbingiem</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2019-05-01</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Zarządzanie Zasobami Ludzkimi</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Katarzyna_Danuta_Durniat_5</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>94</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Katarzyna Danuta Durniat</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4830-5044</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>The Experience and Acceptance of Mobbing and Negative Workplace Behaviours in Poland and Spain – Comparative Study Results.</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Przedsiębiorczość i Zarządzanie</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Katarzyna_Danuta_Durniat_8</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>95</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Katarzyna Danuta Durniat</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4830-5044</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Percepcja roli specjalistów HR oraz stanowiska organizacji wobec mobbingu w miejscu pracy</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2017-09-01</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Zarządzanie Zasobami Ludzkimi</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Katarzyna_Danuta_Durniat_9</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>121</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Bartosz Helfer</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-9863-2871</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Designing Scientifically Valid Infant Formula Trials Which Support Breastfeeding - Outcomes of a Delphi Consensus Project</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Trials</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Bartosz_Helfer_7</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>122</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Bartosz Helfer</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-9863-2871</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Endogenous opioid release capacity in adult ADHD patients: a pilot study with PET and [C-11] carfentanil</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Journal of Cerebral Blood Flow &amp; Metabolism</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Bartosz_Helfer_8</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>129</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Henryk Jarosiewicz</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7057-362X</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>M. Achtnich’s Vocational Picture Test (BBT) in Career Counselling</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Szondiana. Journal of Fate-Analysis and Contributions to Depth Psychology</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Henryk_Jarosiewicz_1</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>131</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Henryk Jarosiewicz</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7057-362X</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Activity Type and Career Constructing</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Polish Journal of Applied Psychology</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Henryk_Jarosiewicz_3</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>132</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Dorota Agnieszka Kanafa-Chmielewska</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6947-6539</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Self-Esteem, Self-Monitoring, and Temperamental Traits in Action: Who Is Involved in Humanitarian, Political, and Religious Non-profit Organizations?</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2021-01-08</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Front. Psychol</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Dorota_Agnieszka_Kanafa-Chmielewska_1</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>133</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Dorota Agnieszka Kanafa-Chmielewska</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6947-6539</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>The two faces of an employee: Exploring the relationships between organizational citizenship behaviour, counterproductive work behaviour and job satisfaction.</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>2019-01-01</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Argumenta Oeconomica</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Dorota_Agnieszka_Kanafa-Chmielewska_2</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>158</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Jarosław Klebaniuk</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4098-2171</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Recenzja książki Paula Blooma „Przeciw empatii. Argumenty za racjonalnym współczuciem”</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Forum Oświatowe</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Jarosław_Klebaniuk_1</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>159</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Jarosław Klebaniuk</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4098-2171</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Emocje moralne jako wyznacznik pomagania członkom grup o niższym statusie</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Forum Oświatowe</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Jarosław_Klebaniuk_2</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>164</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Jolanta Kowal</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6241-9603</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Are IT professionals sensitive and happy leaders in Poland?</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>2018-07-18</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>2018 IEEE 16th International Conference on Industrial Informatics (INDIN)</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Jolanta_Kowal_5</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>165</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Jolanta Kowal</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6241-9603</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>IT Project Manager Selection Review</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>2018-07-18</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>2018 IEEE 16th International Conference on Industrial Informatics (INDIN)</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Jolanta_Kowal_6</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>167</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Jolanta Kowal</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6241-9603</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Does Business Competency Affect Information System (IS) Knowledge Workers’ Life Satisfaction? A Comparative Multicultural Study</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>2017-12-31</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Journal of American Academic Research</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Jolanta_Kowal_8</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>168</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Jolanta Kowal</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6241-9603</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Validation of Task−centric Holistic Agile Approach on Teaching Cyber Physical Systems Engineering</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>2017-12-31</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>GOSPODARKA RYNEK EDUKACJA = ECONOMY MARKET EDUCATION</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Jolanta_Kowal_9</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>170</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Jolanta Kowal</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6241-9603</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Business competencies and innovation capability in cross-border small regional enterprises</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>2017-11-13</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Industrial Informatics (INDIN), 2017 IEEE 15th International Conference</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Jolanta_Kowal_11</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>175</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Kinga Stefania Lachowicz-Tabaczek</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4366-5550</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Jak studenci udzielają sobie informacji zwrotnych, współpracując w zespole? Rola długości perspektywy współpracy i poziomu narcyzmu członków zespołu.</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Teraźniejszość, Człowiek, Edukacja</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Kinga_Stefania_Lachowicz-Tabaczek_4</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>176</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Kinga Stefania Lachowicz-Tabaczek</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4366-5550</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Poziom samooceny ucznia a indywidualizacja procesu nauczania.</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Polish Journal of Applied Psychology</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Kinga_Stefania_Lachowicz-Tabaczek_5</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="n">
+        <v>207</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>Kamila Madeja-Bień</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1118-0871</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>To Comply or Not To Comply: Social Exclusion Increases Compliance in Cyberball but Only With the Non-Rejecters</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>2020-01-21</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Forum Oświatowe</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Kamila_Madeja-Bień_1</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>208</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Kamila Madeja-Bień</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1118-0871</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Mobbing w szkole – przegląd dotychczasowych wyników badań i odniesienia do programów interwencyjnych</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>2019-12-31</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Forum Oświatowe</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Kamila_Madeja-Bień_2</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>210</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Kamila Madeja-Bień</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1118-0871</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>Różnice pomiędzy oceną zachowania dziecka wychowującego się w placówce opiekuńczo-wychowawczej, jako instytucji pieczy zastępczej a wychowywanego w rodzinie</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>2018-12-31</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Teraźniejszość Człowiek Edukacja</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Kamila_Madeja-Bień_4</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" t="n">
+        <v>212</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>Kamila Madeja-Bień</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1118-0871</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>Wybrane skutki wykluczenia społecznego</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>2017-12</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Teraźniejszość Człowiek Edukacja</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Kamila_Madeja-Bień_6</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" t="n">
+        <v>213</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>Kamila Madeja-Bień</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1118-0871</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>Coping strategies to exposure to workplace bullying</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>2017-12-19</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Forum Oświatowe</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Kamila_Madeja-Bień_7</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" t="n">
+        <v>230</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>Agnieszka Krystyna Nomejko</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0254-9892</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>Psychospołeczne predyktory satysfakcji seksualnej polskich kobiet i mężczyzn 50+</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>2019-01</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Polish Journal of Applied Psychology</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Agnieszka_Krystyna_Nomejko_2</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" t="n">
+        <v>231</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Agnieszka Krystyna Nomejko</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0254-9892</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>Znaczenie jakości komunikacji dla satysfakcji seksualnej kobiet i mężczyzn w bliskich związkach o różnym stażu</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>2017-09</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Seksuologia Polska</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Agnieszka_Krystyna_Nomejko_3</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" t="n">
+        <v>281</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t xml:space="preserve">Anna Maria Oleszkowicz </t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8982-2953</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t xml:space="preserve">Doświadczenie parentyfikacji a poczucie tożsamości w okresie wczesnej dorosłości, </t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Psychologia Rozwojowa DOI 10.4467/20843879PR.20.005.12002</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Anna_Maria_Oleszkowicz__1</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" t="n">
+        <v>282</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t xml:space="preserve">Anna Maria Oleszkowicz </t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8982-2953</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>Formowanie się tożsamości osobistej w okresie stającej się dorosłości w kontekście poczucia bezpieczeństwa i gotowości do zmian</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Anna_Maria_Oleszkowicz__2</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" t="n">
+        <v>283</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t xml:space="preserve">Anna Maria Oleszkowicz </t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8982-2953</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>Postawy wobec globalizacji a satysfakcja z życia. Mediacyjna rola procesów tożsamościowych</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Psychologia Rozwojowa  DOI 10.4467/20843879PR.19.011.10894</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Anna_Maria_Oleszkowicz__3</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" t="n">
+        <v>284</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t xml:space="preserve">Anna Maria Oleszkowicz </t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8982-2953</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>Perception of money resources and psychological attitudes toward globalised world</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>2019-10</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Research in Globalization https://doi.org/10.1016/j.resglo.2019.100007</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Anna_Maria_Oleszkowicz__4</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" t="n">
+        <v>287</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t xml:space="preserve">Anna Maria Oleszkowicz </t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8982-2953</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>Wybrane aspekty realizacji zadań rozwojowych a procesy tożsamościowe u kobiet we wczesnej dorosłości</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Psychologia Rozwojowa DOI 10.4467/20843879PR.17.023.8069</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Anna_Maria_Oleszkowicz__7</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" t="n">
+        <v>295</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>Ryszard Wojciech Poprawa</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3711-8710</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>Analiza zmian w zakresie zaspokojenia i frustracji podstawowych potrzeb psychologicznych oraz stresu i radzenia sobie z nim w pierwszych miesiącach pandemii COVID-19 w 2020 roku wśród kobiet</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Polish Psychological Forum</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Ryszard_Wojciech_Poprawa_2</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" t="n">
+        <v>299</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>Ryszard Wojciech Poprawa</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3711-8710</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>Polska adaptacja i walidacja Yale Food Addiction Scale 2.0 = A Polish adaptation and validation of the Yale Food Addiction Scale 2.0</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Alkoholizm i Narkomania-Alchoholism and Drug Addition</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Ryszard_Wojciech_Poprawa_6</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" t="n">
+        <v>302</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>Ryszard Wojciech Poprawa</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3711-8710</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>Kwestionariusz Oczekiwanych Efektów Używania Alkoholu. Zmodyfikowana polska adaptacja.</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Polish Journal of Applied Psychology</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Ryszard_Wojciech_Poprawa_9</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" t="n">
+        <v>303</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>Ryszard Wojciech Poprawa</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3711-8710</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>Kwestionariusz Oczekiwanych Efektów Używania Alkoholu : zmodyfikowana polska adaptacja</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Polish Journal of Applied Psychology</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Ryszard_Wojciech_Poprawa_10</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" t="n">
+        <v>304</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>Ryszard Wojciech Poprawa</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3711-8710</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>W Polskę idziemy : dr hab. Ryszard Poprawa o tym, dlaczego mężczyźni piją</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Ja My Oni : poradnik psychologiczny Polityki</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Ryszard_Wojciech_Poprawa_11</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" t="n">
+        <v>308</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>Aleksandra Monika Słowińska</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-9498-501X</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>Skala Samooceny Ciała dla Adolescentów i Dorosłych (BESAA) – polska adaptacja metody.</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Polish Journal of Applied Psychology</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Aleksandra_Monika_Słowińska_4</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" t="n">
+        <v>393</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>Justyna Śniecińska</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7821-2108</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>Poziom samooceny ucznia a indywidualizacja procesu nauczania</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Polish Journal of Applied Psychology</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Justyna_Śniecińska_2</t>
         </is>
